--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/99/word_level_predictions_99.xlsx
@@ -866,158 +866,158 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>Disabled</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3518,262 +3518,262 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>19</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>20</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6638,988 +6638,988 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>powering</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>aircraft,</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>powering</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>10</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>11</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>12</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>persists,</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>aircraft,</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>13</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>14</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>16</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>17</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>19</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>5</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>If</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>21</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>5</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>22</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>5</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>23</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>5</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>persists,</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>24</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>5</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>25</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>5</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>26</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>5</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>27</v>
-      </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7782,104 +7782,104 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>6</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>2</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F142" s="2" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>6</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>3</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/99/word_level_predictions_99.xlsx
@@ -866,158 +866,158 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" t="n">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Disabled</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3518,262 +3518,262 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>2</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>17</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>2</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>18</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>2</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" t="n">
         <v>19</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>20</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>2</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>21</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>4</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>4</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>6</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" t="n">
         <v>8</v>
       </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6638,988 +6638,988 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>5</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>powering</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>5</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>11</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>5</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>5</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>aircraft,</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>13</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>5</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>14</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>19</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>5</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>21</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="133">
+      <c r="A133" t="n">
         <v>5</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>powering</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>22</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
         <v>5</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>23</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
         <v>5</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>persists,</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>24</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
         <v>5</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>aircraft,</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>25</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
         <v>5</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
         <v>5</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" s="2" t="inlineStr">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>27</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" s="2" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>If</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>persists,</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E138" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7782,104 +7782,104 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F142" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
